--- a/Sound.xlsx
+++ b/Sound.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\go\src\excelTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\文档\Project\github\excelTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D524EE-EDE7-4C6E-994D-B5FFCE109AFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{37D524EE-EDE7-4C6E-994D-B5FFCE109AFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{721BCC71-8574-4D84-9DB3-BAD7F83FBE72}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,11 +44,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>点击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sound/ui/click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +407,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,10 +446,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
